--- a/data_month/zb/价格指数/分行业中类工业生产者出厂价格指数(上年同月=100)(2018-至今)/金属制品业工业生产者出厂价格指数(上年同月=100).xlsx
+++ b/data_month/zb/价格指数/分行业中类工业生产者出厂价格指数(上年同月=100)(2018-至今)/金属制品业工业生产者出厂价格指数(上年同月=100).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -483,156 +483,156 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2018年10月</t>
+          <t>2018-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>101.7</v>
+        <v>103.2872</v>
       </c>
       <c r="C2" t="n">
-        <v>100.8</v>
+        <v>101.4605</v>
       </c>
       <c r="D2" t="n">
-        <v>104.5</v>
+        <v>106.3321</v>
       </c>
       <c r="E2" t="n">
-        <v>107.3</v>
+        <v>112.0099</v>
       </c>
       <c r="F2" t="n">
-        <v>103.2</v>
+        <v>101.5157</v>
       </c>
       <c r="G2" t="n">
-        <v>101.7</v>
+        <v>103.258</v>
       </c>
       <c r="H2" t="n">
-        <v>102</v>
+        <v>104.404</v>
       </c>
       <c r="I2" t="n">
-        <v>103.6</v>
+        <v>104.758</v>
       </c>
       <c r="J2" t="n">
-        <v>105.5</v>
+        <v>105.077</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2018年11月</t>
+          <t>2018-02</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>101.7</v>
+        <v>102.4</v>
       </c>
       <c r="C3" t="n">
-        <v>101.3</v>
+        <v>100.6</v>
       </c>
       <c r="D3" t="n">
-        <v>103.8</v>
+        <v>105.8</v>
       </c>
       <c r="E3" t="n">
-        <v>106.5</v>
+        <v>110.5</v>
       </c>
       <c r="F3" t="n">
-        <v>103.3</v>
+        <v>102.6</v>
       </c>
       <c r="G3" t="n">
-        <v>101.7</v>
+        <v>103.7</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8</v>
+        <v>103.2</v>
       </c>
       <c r="I3" t="n">
-        <v>103.5</v>
+        <v>104.5</v>
       </c>
       <c r="J3" t="n">
-        <v>104.5</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2018年12月</t>
+          <t>2018-03</t>
         </is>
       </c>
       <c r="B4" t="n">
+        <v>101.7</v>
+      </c>
+      <c r="C4" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>106.3</v>
+      </c>
+      <c r="E4" t="n">
+        <v>110.6</v>
+      </c>
+      <c r="F4" t="n">
         <v>101.5</v>
       </c>
-      <c r="C4" t="n">
-        <v>101.4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>103.1</v>
-      </c>
-      <c r="E4" t="n">
+      <c r="G4" t="n">
+        <v>102.6</v>
+      </c>
+      <c r="H4" t="n">
         <v>103.8</v>
       </c>
-      <c r="F4" t="n">
-        <v>102.9</v>
-      </c>
-      <c r="G4" t="n">
-        <v>101</v>
-      </c>
-      <c r="H4" t="n">
-        <v>100.6</v>
-      </c>
       <c r="I4" t="n">
-        <v>102.5</v>
+        <v>104.1</v>
       </c>
       <c r="J4" t="n">
-        <v>103.8</v>
+        <v>102.7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2018年1月</t>
+          <t>2018-04</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>103.2872</v>
+        <v>101.7</v>
       </c>
       <c r="C5" t="n">
-        <v>101.4605</v>
+        <v>100.2</v>
       </c>
       <c r="D5" t="n">
-        <v>106.3321</v>
+        <v>106.3</v>
       </c>
       <c r="E5" t="n">
-        <v>112.0099</v>
+        <v>109.9</v>
       </c>
       <c r="F5" t="n">
-        <v>101.5157</v>
+        <v>102.1</v>
       </c>
       <c r="G5" t="n">
-        <v>103.258</v>
+        <v>102.9</v>
       </c>
       <c r="H5" t="n">
-        <v>104.404</v>
+        <v>103.1</v>
       </c>
       <c r="I5" t="n">
-        <v>104.758</v>
+        <v>104</v>
       </c>
       <c r="J5" t="n">
-        <v>105.077</v>
+        <v>101.7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2018年2月</t>
+          <t>2018-05</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>102.4</v>
+        <v>102</v>
       </c>
       <c r="C6" t="n">
-        <v>100.6</v>
+        <v>100.1</v>
       </c>
       <c r="D6" t="n">
-        <v>105.8</v>
+        <v>106.5</v>
       </c>
       <c r="E6" t="n">
-        <v>110.5</v>
+        <v>109.9</v>
       </c>
       <c r="F6" t="n">
         <v>102.6</v>
@@ -641,10 +641,10 @@
         <v>103.7</v>
       </c>
       <c r="H6" t="n">
-        <v>103.2</v>
+        <v>103.5</v>
       </c>
       <c r="I6" t="n">
-        <v>104.5</v>
+        <v>104.4</v>
       </c>
       <c r="J6" t="n">
         <v>104</v>
@@ -653,1463 +653,1463 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2018年3月</t>
+          <t>2018-06</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>101.7</v>
+        <v>102.1</v>
       </c>
       <c r="C7" t="n">
-        <v>100.3</v>
+        <v>100.1</v>
       </c>
       <c r="D7" t="n">
-        <v>106.3</v>
+        <v>106.6</v>
       </c>
       <c r="E7" t="n">
-        <v>110.6</v>
+        <v>111.5</v>
       </c>
       <c r="F7" t="n">
-        <v>101.5</v>
+        <v>103.1</v>
       </c>
       <c r="G7" t="n">
-        <v>102.6</v>
+        <v>103.5</v>
       </c>
       <c r="H7" t="n">
-        <v>103.8</v>
+        <v>104.5</v>
       </c>
       <c r="I7" t="n">
-        <v>104.1</v>
+        <v>104.4</v>
       </c>
       <c r="J7" t="n">
-        <v>102.7</v>
+        <v>105.1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2018年4月</t>
+          <t>2018-07</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>101.7</v>
+        <v>102.3</v>
       </c>
       <c r="C8" t="n">
-        <v>100.2</v>
+        <v>100.4</v>
       </c>
       <c r="D8" t="n">
-        <v>106.3</v>
+        <v>106.1</v>
       </c>
       <c r="E8" t="n">
-        <v>109.9</v>
+        <v>110.9</v>
       </c>
       <c r="F8" t="n">
-        <v>102.1</v>
+        <v>103.5</v>
       </c>
       <c r="G8" t="n">
         <v>102.9</v>
       </c>
       <c r="H8" t="n">
-        <v>103.1</v>
+        <v>103.6</v>
       </c>
       <c r="I8" t="n">
-        <v>104</v>
+        <v>104.4</v>
       </c>
       <c r="J8" t="n">
-        <v>101.7</v>
+        <v>106.1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2018年5月</t>
+          <t>2018-08</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>102</v>
       </c>
       <c r="C9" t="n">
-        <v>100.1</v>
+        <v>100.6</v>
       </c>
       <c r="D9" t="n">
-        <v>106.5</v>
+        <v>105.7</v>
       </c>
       <c r="E9" t="n">
-        <v>109.9</v>
+        <v>108.8</v>
       </c>
       <c r="F9" t="n">
+        <v>104.2</v>
+      </c>
+      <c r="G9" t="n">
         <v>102.6</v>
       </c>
-      <c r="G9" t="n">
-        <v>103.7</v>
-      </c>
       <c r="H9" t="n">
-        <v>103.5</v>
+        <v>102.8</v>
       </c>
       <c r="I9" t="n">
-        <v>104.4</v>
+        <v>104.1</v>
       </c>
       <c r="J9" t="n">
-        <v>104</v>
+        <v>105.9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2018年6月</t>
+          <t>2018-09</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>102.1</v>
+        <v>101.9</v>
       </c>
       <c r="C10" t="n">
-        <v>100.1</v>
+        <v>100.7</v>
       </c>
       <c r="D10" t="n">
-        <v>106.6</v>
+        <v>105.3</v>
       </c>
       <c r="E10" t="n">
-        <v>111.5</v>
+        <v>108.6</v>
       </c>
       <c r="F10" t="n">
-        <v>103.1</v>
+        <v>104.2</v>
       </c>
       <c r="G10" t="n">
-        <v>103.5</v>
+        <v>101.7</v>
       </c>
       <c r="H10" t="n">
-        <v>104.5</v>
+        <v>102.4</v>
       </c>
       <c r="I10" t="n">
-        <v>104.4</v>
+        <v>103.7</v>
       </c>
       <c r="J10" t="n">
-        <v>105.1</v>
+        <v>105.6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2018年7月</t>
+          <t>2018-10</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>102.3</v>
+        <v>101.7</v>
       </c>
       <c r="C11" t="n">
-        <v>100.4</v>
+        <v>100.8</v>
       </c>
       <c r="D11" t="n">
-        <v>106.1</v>
+        <v>104.5</v>
       </c>
       <c r="E11" t="n">
-        <v>110.9</v>
+        <v>107.3</v>
       </c>
       <c r="F11" t="n">
-        <v>103.5</v>
+        <v>103.2</v>
       </c>
       <c r="G11" t="n">
-        <v>102.9</v>
+        <v>101.7</v>
       </c>
       <c r="H11" t="n">
+        <v>102</v>
+      </c>
+      <c r="I11" t="n">
         <v>103.6</v>
       </c>
-      <c r="I11" t="n">
-        <v>104.4</v>
-      </c>
       <c r="J11" t="n">
-        <v>106.1</v>
+        <v>105.5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2018年8月</t>
+          <t>2018-11</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>102</v>
+        <v>101.7</v>
       </c>
       <c r="C12" t="n">
-        <v>100.6</v>
+        <v>101.3</v>
       </c>
       <c r="D12" t="n">
-        <v>105.7</v>
+        <v>103.8</v>
       </c>
       <c r="E12" t="n">
-        <v>108.8</v>
+        <v>106.5</v>
       </c>
       <c r="F12" t="n">
-        <v>104.2</v>
+        <v>103.3</v>
       </c>
       <c r="G12" t="n">
-        <v>102.6</v>
+        <v>101.7</v>
       </c>
       <c r="H12" t="n">
-        <v>102.8</v>
+        <v>100.8</v>
       </c>
       <c r="I12" t="n">
-        <v>104.1</v>
+        <v>103.5</v>
       </c>
       <c r="J12" t="n">
-        <v>105.9</v>
+        <v>104.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2018年9月</t>
+          <t>2018-12</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>101.9</v>
+        <v>101.5</v>
       </c>
       <c r="C13" t="n">
-        <v>100.7</v>
+        <v>101.4</v>
       </c>
       <c r="D13" t="n">
-        <v>105.3</v>
+        <v>103.1</v>
       </c>
       <c r="E13" t="n">
-        <v>108.6</v>
+        <v>103.8</v>
       </c>
       <c r="F13" t="n">
-        <v>104.2</v>
+        <v>102.9</v>
       </c>
       <c r="G13" t="n">
-        <v>101.7</v>
+        <v>101</v>
       </c>
       <c r="H13" t="n">
-        <v>102.4</v>
+        <v>100.6</v>
       </c>
       <c r="I13" t="n">
-        <v>103.7</v>
+        <v>102.5</v>
       </c>
       <c r="J13" t="n">
-        <v>105.6</v>
+        <v>103.8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2019年10月</t>
+          <t>2019-01</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>100.3</v>
+        <v>101.1</v>
       </c>
       <c r="C14" t="n">
-        <v>100.4</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>100.1</v>
+        <v>102.5</v>
       </c>
       <c r="E14" t="n">
-        <v>98</v>
+        <v>100.8</v>
       </c>
       <c r="F14" t="n">
-        <v>102.2</v>
+        <v>103.3</v>
       </c>
       <c r="G14" t="n">
-        <v>100.9</v>
+        <v>100.5</v>
       </c>
       <c r="H14" t="n">
-        <v>99.09999999999999</v>
+        <v>99.7</v>
       </c>
       <c r="I14" t="n">
-        <v>100.8</v>
+        <v>101.9</v>
       </c>
       <c r="J14" t="n">
-        <v>97.59999999999999</v>
+        <v>102.8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2019年11月</t>
+          <t>2019-02</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>100.4</v>
+        <v>101.1</v>
       </c>
       <c r="C15" t="n">
-        <v>99.90000000000001</v>
+        <v>100.6</v>
       </c>
       <c r="D15" t="n">
-        <v>100.1</v>
+        <v>102.1</v>
       </c>
       <c r="E15" t="n">
-        <v>97.90000000000001</v>
+        <v>101.8</v>
       </c>
       <c r="F15" t="n">
         <v>101.5</v>
       </c>
       <c r="G15" t="n">
-        <v>100.9</v>
+        <v>100.3</v>
       </c>
       <c r="H15" t="n">
-        <v>99.7</v>
+        <v>100.4</v>
       </c>
       <c r="I15" t="n">
-        <v>100.5</v>
+        <v>102</v>
       </c>
       <c r="J15" t="n">
-        <v>98.09999999999999</v>
+        <v>102.6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2019年12月</t>
+          <t>2019-03</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>100.2</v>
+        <v>100.9</v>
       </c>
       <c r="C16" t="n">
-        <v>100.2</v>
+        <v>100.4</v>
       </c>
       <c r="D16" t="n">
-        <v>100.5</v>
+        <v>101.5</v>
       </c>
       <c r="E16" t="n">
-        <v>98.5</v>
+        <v>101</v>
       </c>
       <c r="F16" t="n">
-        <v>101.6</v>
+        <v>102.3</v>
       </c>
       <c r="G16" t="n">
-        <v>100.7</v>
+        <v>100.4</v>
       </c>
       <c r="H16" t="n">
         <v>99.5</v>
       </c>
       <c r="I16" t="n">
-        <v>100.6</v>
+        <v>101.9</v>
       </c>
       <c r="J16" t="n">
-        <v>98.09999999999999</v>
+        <v>101.5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2019年1月</t>
+          <t>2019-04</t>
         </is>
       </c>
       <c r="B17" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="C17" t="n">
         <v>101.1</v>
       </c>
-      <c r="C17" t="n">
-        <v>99.90000000000001</v>
-      </c>
       <c r="D17" t="n">
+        <v>101.3</v>
+      </c>
+      <c r="E17" t="n">
         <v>102.5</v>
       </c>
-      <c r="E17" t="n">
-        <v>100.8</v>
-      </c>
       <c r="F17" t="n">
-        <v>103.3</v>
+        <v>102.4</v>
       </c>
       <c r="G17" t="n">
-        <v>100.5</v>
+        <v>100.6</v>
       </c>
       <c r="H17" t="n">
-        <v>99.7</v>
+        <v>100.9</v>
       </c>
       <c r="I17" t="n">
-        <v>101.9</v>
+        <v>102.2</v>
       </c>
       <c r="J17" t="n">
-        <v>102.8</v>
+        <v>102.1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2019年2月</t>
+          <t>2019-05</t>
         </is>
       </c>
       <c r="B18" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="C18" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="D18" t="n">
         <v>101.1</v>
       </c>
-      <c r="C18" t="n">
-        <v>100.6</v>
-      </c>
-      <c r="D18" t="n">
-        <v>102.1</v>
-      </c>
       <c r="E18" t="n">
+        <v>101.4</v>
+      </c>
+      <c r="F18" t="n">
+        <v>102.7</v>
+      </c>
+      <c r="G18" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="H18" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="I18" t="n">
         <v>101.8</v>
       </c>
-      <c r="F18" t="n">
-        <v>101.5</v>
-      </c>
-      <c r="G18" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="H18" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="I18" t="n">
-        <v>102</v>
-      </c>
       <c r="J18" t="n">
-        <v>102.6</v>
+        <v>99.3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2019年3月</t>
+          <t>2019-06</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>100.9</v>
+        <v>100.7</v>
       </c>
       <c r="C19" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="D19" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="E19" t="n">
         <v>100.4</v>
       </c>
-      <c r="D19" t="n">
-        <v>101.5</v>
-      </c>
-      <c r="E19" t="n">
-        <v>101</v>
-      </c>
       <c r="F19" t="n">
-        <v>102.3</v>
+        <v>102.6</v>
       </c>
       <c r="G19" t="n">
-        <v>100.4</v>
+        <v>100.7</v>
       </c>
       <c r="H19" t="n">
-        <v>99.5</v>
+        <v>100.1</v>
       </c>
       <c r="I19" t="n">
-        <v>101.9</v>
+        <v>101.4</v>
       </c>
       <c r="J19" t="n">
-        <v>101.5</v>
+        <v>99.3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2019年4月</t>
+          <t>2019-07</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>100.7</v>
+        <v>100.4</v>
       </c>
       <c r="C20" t="n">
-        <v>101.1</v>
+        <v>100.9</v>
       </c>
       <c r="D20" t="n">
-        <v>101.3</v>
+        <v>100.9</v>
       </c>
       <c r="E20" t="n">
-        <v>102.5</v>
+        <v>99.7</v>
       </c>
       <c r="F20" t="n">
-        <v>102.4</v>
+        <v>102.6</v>
       </c>
       <c r="G20" t="n">
-        <v>100.6</v>
+        <v>101.2</v>
       </c>
       <c r="H20" t="n">
-        <v>100.9</v>
+        <v>100.5</v>
       </c>
       <c r="I20" t="n">
-        <v>102.2</v>
+        <v>101.5</v>
       </c>
       <c r="J20" t="n">
-        <v>102.1</v>
+        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2019年5月</t>
+          <t>2019-08</t>
         </is>
       </c>
       <c r="B21" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="C21" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="D21" t="n">
         <v>100.7</v>
       </c>
-      <c r="C21" t="n">
-        <v>100.9</v>
-      </c>
-      <c r="D21" t="n">
+      <c r="E21" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="F21" t="n">
+        <v>101.9</v>
+      </c>
+      <c r="G21" t="n">
         <v>101.1</v>
       </c>
-      <c r="E21" t="n">
-        <v>101.4</v>
-      </c>
-      <c r="F21" t="n">
-        <v>102.7</v>
-      </c>
-      <c r="G21" t="n">
-        <v>100.5</v>
-      </c>
       <c r="H21" t="n">
-        <v>100.5</v>
+        <v>99.7</v>
       </c>
       <c r="I21" t="n">
-        <v>101.8</v>
+        <v>101.2</v>
       </c>
       <c r="J21" t="n">
-        <v>99.3</v>
+        <v>98.2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2019年6月</t>
+          <t>2019-09</t>
         </is>
       </c>
       <c r="B22" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="C22" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="D22" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="E22" t="n">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="F22" t="n">
+        <v>102</v>
+      </c>
+      <c r="G22" t="n">
+        <v>101.3</v>
+      </c>
+      <c r="H22" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="I22" t="n">
         <v>100.7</v>
       </c>
-      <c r="C22" t="n">
-        <v>101.2</v>
-      </c>
-      <c r="D22" t="n">
-        <v>100.7</v>
-      </c>
-      <c r="E22" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="F22" t="n">
-        <v>102.6</v>
-      </c>
-      <c r="G22" t="n">
-        <v>100.7</v>
-      </c>
-      <c r="H22" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>101.4</v>
-      </c>
       <c r="J22" t="n">
-        <v>99.3</v>
+        <v>98.2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2019年7月</t>
+          <t>2019-10</t>
         </is>
       </c>
       <c r="B23" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="C23" t="n">
         <v>100.4</v>
       </c>
-      <c r="C23" t="n">
+      <c r="D23" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="E23" t="n">
+        <v>98</v>
+      </c>
+      <c r="F23" t="n">
+        <v>102.2</v>
+      </c>
+      <c r="G23" t="n">
         <v>100.9</v>
       </c>
-      <c r="D23" t="n">
-        <v>100.9</v>
-      </c>
-      <c r="E23" t="n">
-        <v>99.7</v>
-      </c>
-      <c r="F23" t="n">
-        <v>102.6</v>
-      </c>
-      <c r="G23" t="n">
-        <v>101.2</v>
-      </c>
       <c r="H23" t="n">
-        <v>100.5</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="I23" t="n">
-        <v>101.5</v>
+        <v>100.8</v>
       </c>
       <c r="J23" t="n">
-        <v>99.09999999999999</v>
+        <v>97.59999999999999</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2019年8月</t>
+          <t>2019-11</t>
         </is>
       </c>
       <c r="B24" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="C24" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="D24" t="n">
         <v>100.1</v>
       </c>
-      <c r="C24" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="D24" t="n">
-        <v>100.7</v>
-      </c>
       <c r="E24" t="n">
-        <v>99.09999999999999</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="F24" t="n">
-        <v>101.9</v>
+        <v>101.5</v>
       </c>
       <c r="G24" t="n">
-        <v>101.1</v>
+        <v>100.9</v>
       </c>
       <c r="H24" t="n">
         <v>99.7</v>
       </c>
       <c r="I24" t="n">
-        <v>101.2</v>
+        <v>100.5</v>
       </c>
       <c r="J24" t="n">
-        <v>98.2</v>
+        <v>98.09999999999999</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2019年9月</t>
+          <t>2019-12</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>100.4</v>
+        <v>100.2</v>
       </c>
       <c r="C25" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="D25" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="E25" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="F25" t="n">
+        <v>101.6</v>
+      </c>
+      <c r="G25" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="H25" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="I25" t="n">
         <v>100.6</v>
       </c>
-      <c r="D25" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="E25" t="n">
-        <v>97.59999999999999</v>
-      </c>
-      <c r="F25" t="n">
-        <v>102</v>
-      </c>
-      <c r="G25" t="n">
-        <v>101.3</v>
-      </c>
-      <c r="H25" t="n">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="I25" t="n">
-        <v>100.7</v>
-      </c>
       <c r="J25" t="n">
-        <v>98.2</v>
+        <v>98.09999999999999</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2020年10月</t>
+          <t>2020-01</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>98.8</v>
+        <v>100.4</v>
       </c>
       <c r="C26" t="n">
-        <v>101.9</v>
+        <v>100.1</v>
       </c>
       <c r="D26" t="n">
-        <v>99.90000000000001</v>
+        <v>100.8</v>
       </c>
       <c r="E26" t="n">
-        <v>98.8</v>
+        <v>99.5</v>
       </c>
       <c r="F26" t="n">
-        <v>98.40000000000001</v>
+        <v>101</v>
       </c>
       <c r="G26" t="n">
-        <v>100</v>
+        <v>101.4</v>
       </c>
       <c r="H26" t="n">
-        <v>102.3</v>
+        <v>100.5</v>
       </c>
       <c r="I26" t="n">
-        <v>100</v>
+        <v>100.4</v>
       </c>
       <c r="J26" t="n">
-        <v>100.4</v>
+        <v>99.5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2020年11月</t>
+          <t>2020-02</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>98.59999999999999</v>
+        <v>100.5</v>
       </c>
       <c r="C27" t="n">
-        <v>102.1</v>
+        <v>100.2</v>
       </c>
       <c r="D27" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="E27" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="F27" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="G27" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="H27" t="n">
         <v>100.1</v>
       </c>
-      <c r="E27" t="n">
-        <v>99</v>
-      </c>
-      <c r="F27" t="n">
-        <v>98.2</v>
-      </c>
-      <c r="G27" t="n">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="H27" t="n">
-        <v>102.6</v>
-      </c>
       <c r="I27" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="J27" t="n">
         <v>99.90000000000001</v>
-      </c>
-      <c r="J27" t="n">
-        <v>101.4</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2020年12月</t>
+          <t>2020-03</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>99.09999999999999</v>
+        <v>100.2</v>
       </c>
       <c r="C28" t="n">
-        <v>101.9</v>
+        <v>100.1</v>
       </c>
       <c r="D28" t="n">
-        <v>100.5</v>
+        <v>100.4</v>
       </c>
       <c r="E28" t="n">
-        <v>101.6</v>
+        <v>97.8</v>
       </c>
       <c r="F28" t="n">
-        <v>98.2</v>
+        <v>100.1</v>
       </c>
       <c r="G28" t="n">
-        <v>100</v>
+        <v>101.4</v>
       </c>
       <c r="H28" t="n">
-        <v>104.4</v>
+        <v>98.8</v>
       </c>
       <c r="I28" t="n">
-        <v>100.1</v>
+        <v>99.8</v>
       </c>
       <c r="J28" t="n">
-        <v>102.8</v>
+        <v>101.4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2020年1月</t>
+          <t>2020-04</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>100.4</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C29" t="n">
-        <v>100.1</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>100.8</v>
+        <v>100.3</v>
       </c>
       <c r="E29" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="F29" t="n">
         <v>99.5</v>
       </c>
-      <c r="F29" t="n">
-        <v>101</v>
-      </c>
       <c r="G29" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="H29" t="n">
+        <v>97.7</v>
+      </c>
+      <c r="I29" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J29" t="n">
         <v>101.4</v>
-      </c>
-      <c r="H29" t="n">
-        <v>100.5</v>
-      </c>
-      <c r="I29" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="J29" t="n">
-        <v>99.5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2020年2月</t>
+          <t>2020-05</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>100.5</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="C30" t="n">
         <v>100.2</v>
       </c>
       <c r="D30" t="n">
-        <v>100.8</v>
+        <v>100.2</v>
       </c>
       <c r="E30" t="n">
-        <v>99.09999999999999</v>
+        <v>95.2</v>
       </c>
       <c r="F30" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="G30" t="n">
-        <v>101.5</v>
+        <v>100.5</v>
       </c>
       <c r="H30" t="n">
-        <v>100.1</v>
+        <v>97.3</v>
       </c>
       <c r="I30" t="n">
-        <v>100.1</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="J30" t="n">
-        <v>99.90000000000001</v>
+        <v>101.3</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2020年3月</t>
+          <t>2020-06</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>100.2</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>100.1</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D31" t="n">
         <v>100.4</v>
       </c>
       <c r="E31" t="n">
-        <v>97.8</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="F31" t="n">
-        <v>100.1</v>
+        <v>100.6</v>
       </c>
       <c r="G31" t="n">
-        <v>101.4</v>
+        <v>100.7</v>
       </c>
       <c r="H31" t="n">
-        <v>98.8</v>
+        <v>98.2</v>
       </c>
       <c r="I31" t="n">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="J31" t="n">
-        <v>101.4</v>
+        <v>101.1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2020年4月</t>
+          <t>2020-07</t>
         </is>
       </c>
       <c r="B32" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="C32" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="D32" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="C32" t="n">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="D32" t="n">
-        <v>100.3</v>
-      </c>
       <c r="E32" t="n">
-        <v>95.59999999999999</v>
+        <v>97.3</v>
       </c>
       <c r="F32" t="n">
-        <v>99.5</v>
+        <v>100.2</v>
       </c>
       <c r="G32" t="n">
-        <v>101.1</v>
+        <v>100.8</v>
       </c>
       <c r="H32" t="n">
-        <v>97.7</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="I32" t="n">
         <v>99.59999999999999</v>
       </c>
       <c r="J32" t="n">
-        <v>101.4</v>
+        <v>100.2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2020年5月</t>
+          <t>2020-08</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>99.59999999999999</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>100.2</v>
+        <v>101.3</v>
       </c>
       <c r="D33" t="n">
-        <v>100.2</v>
+        <v>99.8</v>
       </c>
       <c r="E33" t="n">
-        <v>95.2</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="F33" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="G33" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="H33" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="I33" t="n">
         <v>100</v>
       </c>
-      <c r="G33" t="n">
-        <v>100.5</v>
-      </c>
-      <c r="H33" t="n">
-        <v>97.3</v>
-      </c>
-      <c r="I33" t="n">
-        <v>99.59999999999999</v>
-      </c>
       <c r="J33" t="n">
-        <v>101.3</v>
+        <v>100.6</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2020年6月</t>
+          <t>2020-09</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>99.40000000000001</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>99.90000000000001</v>
+        <v>101.2</v>
       </c>
       <c r="D34" t="n">
         <v>100.4</v>
       </c>
       <c r="E34" t="n">
-        <v>96.40000000000001</v>
+        <v>99</v>
       </c>
       <c r="F34" t="n">
-        <v>100.6</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="G34" t="n">
-        <v>100.7</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="H34" t="n">
-        <v>98.2</v>
+        <v>101.8</v>
       </c>
       <c r="I34" t="n">
-        <v>99.7</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="J34" t="n">
-        <v>101.1</v>
+        <v>99.90000000000001</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2020年7月</t>
+          <t>2020-10</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>99.7</v>
+        <v>98.8</v>
       </c>
       <c r="C35" t="n">
-        <v>100.4</v>
+        <v>101.9</v>
       </c>
       <c r="D35" t="n">
         <v>99.90000000000001</v>
       </c>
       <c r="E35" t="n">
-        <v>97.3</v>
+        <v>98.8</v>
       </c>
       <c r="F35" t="n">
-        <v>100.2</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="G35" t="n">
-        <v>100.8</v>
+        <v>100</v>
       </c>
       <c r="H35" t="n">
-        <v>99.09999999999999</v>
+        <v>102.3</v>
       </c>
       <c r="I35" t="n">
-        <v>99.59999999999999</v>
+        <v>100</v>
       </c>
       <c r="J35" t="n">
-        <v>100.2</v>
+        <v>100.4</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2020年8月</t>
+          <t>2020-11</t>
         </is>
       </c>
       <c r="B36" t="n">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="C36" t="n">
+        <v>102.1</v>
+      </c>
+      <c r="D36" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="E36" t="n">
+        <v>99</v>
+      </c>
+      <c r="F36" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="G36" t="n">
         <v>99.40000000000001</v>
       </c>
-      <c r="C36" t="n">
-        <v>101.3</v>
-      </c>
-      <c r="D36" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="E36" t="n">
-        <v>97.90000000000001</v>
-      </c>
-      <c r="F36" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="G36" t="n">
-        <v>100.3</v>
-      </c>
       <c r="H36" t="n">
-        <v>100.3</v>
+        <v>102.6</v>
       </c>
       <c r="I36" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="J36" t="n">
-        <v>100.6</v>
+        <v>101.4</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2020年9月</t>
+          <t>2020-12</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>98.90000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="C37" t="n">
-        <v>101.2</v>
+        <v>101.9</v>
       </c>
       <c r="D37" t="n">
-        <v>100.4</v>
+        <v>100.5</v>
       </c>
       <c r="E37" t="n">
-        <v>99</v>
+        <v>101.6</v>
       </c>
       <c r="F37" t="n">
-        <v>98.90000000000001</v>
+        <v>98.2</v>
       </c>
       <c r="G37" t="n">
-        <v>99.59999999999999</v>
+        <v>100</v>
       </c>
       <c r="H37" t="n">
-        <v>101.8</v>
+        <v>104.4</v>
       </c>
       <c r="I37" t="n">
-        <v>99.90000000000001</v>
+        <v>100.1</v>
       </c>
       <c r="J37" t="n">
-        <v>99.90000000000001</v>
+        <v>102.8</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2021年10月</t>
+          <t>2021-01</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>104.2</v>
+        <v>98</v>
       </c>
       <c r="C38" t="n">
-        <v>119.1</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="D38" t="n">
-        <v>109.3</v>
+        <v>101</v>
       </c>
       <c r="E38" t="n">
-        <v>119.5</v>
+        <v>106.4</v>
       </c>
       <c r="F38" t="n">
-        <v>101.8</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="G38" t="n">
-        <v>102.4</v>
+        <v>99.3</v>
       </c>
       <c r="H38" t="n">
-        <v>111.2</v>
+        <v>104.8</v>
       </c>
       <c r="I38" t="n">
-        <v>112.1</v>
+        <v>100.9</v>
       </c>
       <c r="J38" t="n">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2021年11月</t>
+          <t>2021-02</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>104.5</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="C39" t="n">
-        <v>119</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="D39" t="n">
-        <v>108.8</v>
+        <v>101.8</v>
       </c>
       <c r="E39" t="n">
-        <v>119.5</v>
+        <v>108.3</v>
       </c>
       <c r="F39" t="n">
-        <v>102</v>
+        <v>98.2</v>
       </c>
       <c r="G39" t="n">
-        <v>102.8</v>
+        <v>99.7</v>
       </c>
       <c r="H39" t="n">
-        <v>111.7</v>
+        <v>105.7</v>
       </c>
       <c r="I39" t="n">
-        <v>112.7</v>
+        <v>101.8</v>
       </c>
       <c r="J39" t="n">
-        <v>113.6</v>
+        <v>103.4</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2021年12月</t>
+          <t>2021-03</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>105</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>118.2</v>
+        <v>100.2</v>
       </c>
       <c r="D40" t="n">
-        <v>108.2</v>
+        <v>103.8</v>
       </c>
       <c r="E40" t="n">
-        <v>114.6</v>
+        <v>112.7</v>
       </c>
       <c r="F40" t="n">
-        <v>102.1</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="G40" t="n">
-        <v>103.4</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="H40" t="n">
-        <v>110.4</v>
+        <v>107.7</v>
       </c>
       <c r="I40" t="n">
-        <v>112.2</v>
+        <v>103.9</v>
       </c>
       <c r="J40" t="n">
-        <v>113</v>
+        <v>103.6</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2021年1月</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>98</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="C41" t="n">
-        <v>99.09999999999999</v>
+        <v>99.2</v>
       </c>
       <c r="D41" t="n">
-        <v>101</v>
+        <v>105.5</v>
       </c>
       <c r="E41" t="n">
-        <v>106.4</v>
+        <v>118</v>
       </c>
       <c r="F41" t="n">
-        <v>96.90000000000001</v>
+        <v>97.7</v>
       </c>
       <c r="G41" t="n">
-        <v>99.3</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="H41" t="n">
-        <v>104.8</v>
+        <v>108.3</v>
       </c>
       <c r="I41" t="n">
-        <v>100.9</v>
+        <v>105</v>
       </c>
       <c r="J41" t="n">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2021年2月</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>98.40000000000001</v>
+        <v>101.2</v>
       </c>
       <c r="C42" t="n">
-        <v>99.09999999999999</v>
+        <v>111.1</v>
       </c>
       <c r="D42" t="n">
-        <v>101.8</v>
+        <v>106.8</v>
       </c>
       <c r="E42" t="n">
-        <v>108.3</v>
+        <v>120.2</v>
       </c>
       <c r="F42" t="n">
-        <v>98.2</v>
+        <v>97.8</v>
       </c>
       <c r="G42" t="n">
-        <v>99.7</v>
+        <v>100.6</v>
       </c>
       <c r="H42" t="n">
-        <v>105.7</v>
+        <v>113.1</v>
       </c>
       <c r="I42" t="n">
-        <v>101.8</v>
+        <v>107.4</v>
       </c>
       <c r="J42" t="n">
-        <v>103.4</v>
+        <v>108.2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2021年3月</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>98.40000000000001</v>
+        <v>101.3</v>
       </c>
       <c r="C43" t="n">
-        <v>100.2</v>
+        <v>114.5</v>
       </c>
       <c r="D43" t="n">
-        <v>103.8</v>
+        <v>107</v>
       </c>
       <c r="E43" t="n">
-        <v>112.7</v>
+        <v>120.4</v>
       </c>
       <c r="F43" t="n">
-        <v>97.40000000000001</v>
+        <v>97.8</v>
       </c>
       <c r="G43" t="n">
-        <v>99.59999999999999</v>
+        <v>100.5</v>
       </c>
       <c r="H43" t="n">
-        <v>107.7</v>
+        <v>112.4</v>
       </c>
       <c r="I43" t="n">
-        <v>103.9</v>
+        <v>109</v>
       </c>
       <c r="J43" t="n">
-        <v>103.6</v>
+        <v>108.4</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2021年4月</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>99.09999999999999</v>
+        <v>101.8</v>
       </c>
       <c r="C44" t="n">
-        <v>99.2</v>
+        <v>114</v>
       </c>
       <c r="D44" t="n">
-        <v>105.5</v>
+        <v>107.8</v>
       </c>
       <c r="E44" t="n">
-        <v>118</v>
+        <v>117.9</v>
       </c>
       <c r="F44" t="n">
-        <v>97.7</v>
+        <v>99</v>
       </c>
       <c r="G44" t="n">
-        <v>99.90000000000001</v>
+        <v>100.8</v>
       </c>
       <c r="H44" t="n">
-        <v>108.3</v>
+        <v>112.5</v>
       </c>
       <c r="I44" t="n">
-        <v>105</v>
+        <v>109.2</v>
       </c>
       <c r="J44" t="n">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2021年5月</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>101.2</v>
+        <v>102</v>
       </c>
       <c r="C45" t="n">
-        <v>111.1</v>
+        <v>116.2</v>
       </c>
       <c r="D45" t="n">
-        <v>106.8</v>
+        <v>108.2</v>
       </c>
       <c r="E45" t="n">
-        <v>120.2</v>
+        <v>117.2</v>
       </c>
       <c r="F45" t="n">
-        <v>97.8</v>
+        <v>99.3</v>
       </c>
       <c r="G45" t="n">
-        <v>100.6</v>
+        <v>101.5</v>
       </c>
       <c r="H45" t="n">
-        <v>113.1</v>
+        <v>112.2</v>
       </c>
       <c r="I45" t="n">
-        <v>107.4</v>
+        <v>109.9</v>
       </c>
       <c r="J45" t="n">
-        <v>108.2</v>
+        <v>112.2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2021年6月</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>101.3</v>
+        <v>103.2</v>
       </c>
       <c r="C46" t="n">
-        <v>114.5</v>
+        <v>113.6</v>
       </c>
       <c r="D46" t="n">
-        <v>107</v>
+        <v>108.4</v>
       </c>
       <c r="E46" t="n">
-        <v>120.4</v>
+        <v>117.1</v>
       </c>
       <c r="F46" t="n">
-        <v>97.8</v>
+        <v>100.6</v>
       </c>
       <c r="G46" t="n">
-        <v>100.5</v>
+        <v>102.6</v>
       </c>
       <c r="H46" t="n">
-        <v>112.4</v>
+        <v>112</v>
       </c>
       <c r="I46" t="n">
-        <v>109</v>
+        <v>110.7</v>
       </c>
       <c r="J46" t="n">
-        <v>108.4</v>
+        <v>113.4</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2021年7月</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="B47" t="n">
+        <v>104.2</v>
+      </c>
+      <c r="C47" t="n">
+        <v>119.1</v>
+      </c>
+      <c r="D47" t="n">
+        <v>109.3</v>
+      </c>
+      <c r="E47" t="n">
+        <v>119.5</v>
+      </c>
+      <c r="F47" t="n">
         <v>101.8</v>
       </c>
-      <c r="C47" t="n">
+      <c r="G47" t="n">
+        <v>102.4</v>
+      </c>
+      <c r="H47" t="n">
+        <v>111.2</v>
+      </c>
+      <c r="I47" t="n">
+        <v>112.1</v>
+      </c>
+      <c r="J47" t="n">
         <v>114</v>
-      </c>
-      <c r="D47" t="n">
-        <v>107.8</v>
-      </c>
-      <c r="E47" t="n">
-        <v>117.9</v>
-      </c>
-      <c r="F47" t="n">
-        <v>99</v>
-      </c>
-      <c r="G47" t="n">
-        <v>100.8</v>
-      </c>
-      <c r="H47" t="n">
-        <v>112.5</v>
-      </c>
-      <c r="I47" t="n">
-        <v>109.2</v>
-      </c>
-      <c r="J47" t="n">
-        <v>110</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2021年8月</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="B48" t="n">
+        <v>104.5</v>
+      </c>
+      <c r="C48" t="n">
+        <v>119</v>
+      </c>
+      <c r="D48" t="n">
+        <v>108.8</v>
+      </c>
+      <c r="E48" t="n">
+        <v>119.5</v>
+      </c>
+      <c r="F48" t="n">
         <v>102</v>
       </c>
-      <c r="C48" t="n">
-        <v>116.2</v>
-      </c>
-      <c r="D48" t="n">
-        <v>108.2</v>
-      </c>
-      <c r="E48" t="n">
-        <v>117.2</v>
-      </c>
-      <c r="F48" t="n">
-        <v>99.3</v>
-      </c>
       <c r="G48" t="n">
-        <v>101.5</v>
+        <v>102.8</v>
       </c>
       <c r="H48" t="n">
-        <v>112.2</v>
+        <v>111.7</v>
       </c>
       <c r="I48" t="n">
-        <v>109.9</v>
+        <v>112.7</v>
       </c>
       <c r="J48" t="n">
-        <v>112.2</v>
+        <v>113.6</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2021年9月</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>103.2</v>
+        <v>105</v>
       </c>
       <c r="C49" t="n">
-        <v>113.6</v>
+        <v>118.2</v>
       </c>
       <c r="D49" t="n">
-        <v>108.4</v>
+        <v>108.2</v>
       </c>
       <c r="E49" t="n">
-        <v>117.1</v>
+        <v>114.6</v>
       </c>
       <c r="F49" t="n">
-        <v>100.6</v>
+        <v>102.1</v>
       </c>
       <c r="G49" t="n">
-        <v>102.6</v>
+        <v>103.4</v>
       </c>
       <c r="H49" t="n">
-        <v>112</v>
+        <v>110.4</v>
       </c>
       <c r="I49" t="n">
-        <v>110.7</v>
+        <v>112.2</v>
       </c>
       <c r="J49" t="n">
-        <v>113.4</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/data_month/zb/价格指数/分行业中类工业生产者出厂价格指数(上年同月=100)(2018-至今)/金属制品业工业生产者出厂价格指数(上年同月=100).xlsx
+++ b/data_month/zb/价格指数/分行业中类工业生产者出厂价格指数(上年同月=100)(2018-至今)/金属制品业工业生产者出厂价格指数(上年同月=100).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:J68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,156 +483,156 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2018-01</t>
+          <t>2018-10</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>103.2872</v>
+        <v>101.7</v>
       </c>
       <c r="C2" t="n">
-        <v>101.4605</v>
+        <v>100.8</v>
       </c>
       <c r="D2" t="n">
-        <v>106.3321</v>
+        <v>104.5</v>
       </c>
       <c r="E2" t="n">
-        <v>112.0099</v>
+        <v>107.3</v>
       </c>
       <c r="F2" t="n">
-        <v>101.5157</v>
+        <v>103.2</v>
       </c>
       <c r="G2" t="n">
-        <v>103.258</v>
+        <v>101.7</v>
       </c>
       <c r="H2" t="n">
-        <v>104.404</v>
+        <v>102</v>
       </c>
       <c r="I2" t="n">
-        <v>104.758</v>
+        <v>103.6</v>
       </c>
       <c r="J2" t="n">
-        <v>105.077</v>
+        <v>105.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2018-02</t>
+          <t>2018-11</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>102.4</v>
+        <v>101.7</v>
       </c>
       <c r="C3" t="n">
-        <v>100.6</v>
+        <v>101.3</v>
       </c>
       <c r="D3" t="n">
-        <v>105.8</v>
+        <v>103.8</v>
       </c>
       <c r="E3" t="n">
-        <v>110.5</v>
+        <v>106.5</v>
       </c>
       <c r="F3" t="n">
-        <v>102.6</v>
+        <v>103.3</v>
       </c>
       <c r="G3" t="n">
-        <v>103.7</v>
+        <v>101.7</v>
       </c>
       <c r="H3" t="n">
-        <v>103.2</v>
+        <v>100.8</v>
       </c>
       <c r="I3" t="n">
+        <v>103.5</v>
+      </c>
+      <c r="J3" t="n">
         <v>104.5</v>
-      </c>
-      <c r="J3" t="n">
-        <v>104</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2018-03</t>
+          <t>2018-12</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>101.7</v>
+        <v>101.5</v>
       </c>
       <c r="C4" t="n">
-        <v>100.3</v>
+        <v>101.4</v>
       </c>
       <c r="D4" t="n">
-        <v>106.3</v>
+        <v>103.1</v>
       </c>
       <c r="E4" t="n">
-        <v>110.6</v>
+        <v>103.8</v>
       </c>
       <c r="F4" t="n">
-        <v>101.5</v>
+        <v>102.9</v>
       </c>
       <c r="G4" t="n">
-        <v>102.6</v>
+        <v>101</v>
       </c>
       <c r="H4" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="I4" t="n">
+        <v>102.5</v>
+      </c>
+      <c r="J4" t="n">
         <v>103.8</v>
-      </c>
-      <c r="I4" t="n">
-        <v>104.1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>102.7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2018-04</t>
+          <t>2018-01</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>101.7</v>
+        <v>103.2872</v>
       </c>
       <c r="C5" t="n">
-        <v>100.2</v>
+        <v>101.4605</v>
       </c>
       <c r="D5" t="n">
-        <v>106.3</v>
+        <v>106.3321</v>
       </c>
       <c r="E5" t="n">
-        <v>109.9</v>
+        <v>112.0099</v>
       </c>
       <c r="F5" t="n">
-        <v>102.1</v>
+        <v>101.5157</v>
       </c>
       <c r="G5" t="n">
-        <v>102.9</v>
+        <v>103.258</v>
       </c>
       <c r="H5" t="n">
-        <v>103.1</v>
+        <v>104.404</v>
       </c>
       <c r="I5" t="n">
-        <v>104</v>
+        <v>104.758</v>
       </c>
       <c r="J5" t="n">
-        <v>101.7</v>
+        <v>105.077</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2018-05</t>
+          <t>2018-02</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>102</v>
+        <v>102.4</v>
       </c>
       <c r="C6" t="n">
-        <v>100.1</v>
+        <v>100.6</v>
       </c>
       <c r="D6" t="n">
-        <v>106.5</v>
+        <v>105.8</v>
       </c>
       <c r="E6" t="n">
-        <v>109.9</v>
+        <v>110.5</v>
       </c>
       <c r="F6" t="n">
         <v>102.6</v>
@@ -641,10 +641,10 @@
         <v>103.7</v>
       </c>
       <c r="H6" t="n">
-        <v>103.5</v>
+        <v>103.2</v>
       </c>
       <c r="I6" t="n">
-        <v>104.4</v>
+        <v>104.5</v>
       </c>
       <c r="J6" t="n">
         <v>104</v>
@@ -653,1463 +653,2109 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2018-06</t>
+          <t>2018-03</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>102.1</v>
+        <v>101.7</v>
       </c>
       <c r="C7" t="n">
-        <v>100.1</v>
+        <v>100.3</v>
       </c>
       <c r="D7" t="n">
-        <v>106.6</v>
+        <v>106.3</v>
       </c>
       <c r="E7" t="n">
-        <v>111.5</v>
+        <v>110.6</v>
       </c>
       <c r="F7" t="n">
-        <v>103.1</v>
+        <v>101.5</v>
       </c>
       <c r="G7" t="n">
-        <v>103.5</v>
+        <v>102.6</v>
       </c>
       <c r="H7" t="n">
-        <v>104.5</v>
+        <v>103.8</v>
       </c>
       <c r="I7" t="n">
-        <v>104.4</v>
+        <v>104.1</v>
       </c>
       <c r="J7" t="n">
-        <v>105.1</v>
+        <v>102.7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2018-07</t>
+          <t>2018-04</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>102.3</v>
+        <v>101.7</v>
       </c>
       <c r="C8" t="n">
-        <v>100.4</v>
+        <v>100.2</v>
       </c>
       <c r="D8" t="n">
-        <v>106.1</v>
+        <v>106.3</v>
       </c>
       <c r="E8" t="n">
-        <v>110.9</v>
+        <v>109.9</v>
       </c>
       <c r="F8" t="n">
-        <v>103.5</v>
+        <v>102.1</v>
       </c>
       <c r="G8" t="n">
         <v>102.9</v>
       </c>
       <c r="H8" t="n">
-        <v>103.6</v>
+        <v>103.1</v>
       </c>
       <c r="I8" t="n">
-        <v>104.4</v>
+        <v>104</v>
       </c>
       <c r="J8" t="n">
-        <v>106.1</v>
+        <v>101.7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2018-08</t>
+          <t>2018-05</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>102</v>
       </c>
       <c r="C9" t="n">
-        <v>100.6</v>
+        <v>100.1</v>
       </c>
       <c r="D9" t="n">
-        <v>105.7</v>
+        <v>106.5</v>
       </c>
       <c r="E9" t="n">
-        <v>108.8</v>
+        <v>109.9</v>
       </c>
       <c r="F9" t="n">
-        <v>104.2</v>
+        <v>102.6</v>
       </c>
       <c r="G9" t="n">
-        <v>102.6</v>
+        <v>103.7</v>
       </c>
       <c r="H9" t="n">
-        <v>102.8</v>
+        <v>103.5</v>
       </c>
       <c r="I9" t="n">
-        <v>104.1</v>
+        <v>104.4</v>
       </c>
       <c r="J9" t="n">
-        <v>105.9</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2018-09</t>
+          <t>2018-06</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>101.9</v>
+        <v>102.1</v>
       </c>
       <c r="C10" t="n">
-        <v>100.7</v>
+        <v>100.1</v>
       </c>
       <c r="D10" t="n">
-        <v>105.3</v>
+        <v>106.6</v>
       </c>
       <c r="E10" t="n">
-        <v>108.6</v>
+        <v>111.5</v>
       </c>
       <c r="F10" t="n">
-        <v>104.2</v>
+        <v>103.1</v>
       </c>
       <c r="G10" t="n">
-        <v>101.7</v>
+        <v>103.5</v>
       </c>
       <c r="H10" t="n">
-        <v>102.4</v>
+        <v>104.5</v>
       </c>
       <c r="I10" t="n">
-        <v>103.7</v>
+        <v>104.4</v>
       </c>
       <c r="J10" t="n">
-        <v>105.6</v>
+        <v>105.1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2018-10</t>
+          <t>2018-07</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>101.7</v>
+        <v>102.3</v>
       </c>
       <c r="C11" t="n">
-        <v>100.8</v>
+        <v>100.4</v>
       </c>
       <c r="D11" t="n">
-        <v>104.5</v>
+        <v>106.1</v>
       </c>
       <c r="E11" t="n">
-        <v>107.3</v>
+        <v>110.9</v>
       </c>
       <c r="F11" t="n">
-        <v>103.2</v>
+        <v>103.5</v>
       </c>
       <c r="G11" t="n">
-        <v>101.7</v>
+        <v>102.9</v>
       </c>
       <c r="H11" t="n">
-        <v>102</v>
+        <v>103.6</v>
       </c>
       <c r="I11" t="n">
-        <v>103.6</v>
+        <v>104.4</v>
       </c>
       <c r="J11" t="n">
-        <v>105.5</v>
+        <v>106.1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2018-11</t>
+          <t>2018-08</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>101.7</v>
+        <v>102</v>
       </c>
       <c r="C12" t="n">
-        <v>101.3</v>
+        <v>100.6</v>
       </c>
       <c r="D12" t="n">
-        <v>103.8</v>
+        <v>105.7</v>
       </c>
       <c r="E12" t="n">
-        <v>106.5</v>
+        <v>108.8</v>
       </c>
       <c r="F12" t="n">
-        <v>103.3</v>
+        <v>104.2</v>
       </c>
       <c r="G12" t="n">
-        <v>101.7</v>
+        <v>102.6</v>
       </c>
       <c r="H12" t="n">
-        <v>100.8</v>
+        <v>102.8</v>
       </c>
       <c r="I12" t="n">
-        <v>103.5</v>
+        <v>104.1</v>
       </c>
       <c r="J12" t="n">
-        <v>104.5</v>
+        <v>105.9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2018-12</t>
+          <t>2018-09</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>101.5</v>
+        <v>101.9</v>
       </c>
       <c r="C13" t="n">
-        <v>101.4</v>
+        <v>100.7</v>
       </c>
       <c r="D13" t="n">
-        <v>103.1</v>
+        <v>105.3</v>
       </c>
       <c r="E13" t="n">
-        <v>103.8</v>
+        <v>108.6</v>
       </c>
       <c r="F13" t="n">
-        <v>102.9</v>
+        <v>104.2</v>
       </c>
       <c r="G13" t="n">
-        <v>101</v>
+        <v>101.7</v>
       </c>
       <c r="H13" t="n">
-        <v>100.6</v>
+        <v>102.4</v>
       </c>
       <c r="I13" t="n">
-        <v>102.5</v>
+        <v>103.7</v>
       </c>
       <c r="J13" t="n">
-        <v>103.8</v>
+        <v>105.6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2019-01</t>
+          <t>2019-10</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>101.1</v>
+        <v>100.3</v>
       </c>
       <c r="C14" t="n">
-        <v>99.90000000000001</v>
+        <v>100.4</v>
       </c>
       <c r="D14" t="n">
-        <v>102.5</v>
+        <v>100.1</v>
       </c>
       <c r="E14" t="n">
+        <v>98</v>
+      </c>
+      <c r="F14" t="n">
+        <v>102.2</v>
+      </c>
+      <c r="G14" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="H14" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="I14" t="n">
         <v>100.8</v>
       </c>
-      <c r="F14" t="n">
-        <v>103.3</v>
-      </c>
-      <c r="G14" t="n">
-        <v>100.5</v>
-      </c>
-      <c r="H14" t="n">
-        <v>99.7</v>
-      </c>
-      <c r="I14" t="n">
-        <v>101.9</v>
-      </c>
       <c r="J14" t="n">
-        <v>102.8</v>
+        <v>97.59999999999999</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2019-02</t>
+          <t>2019-11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>101.1</v>
+        <v>100.4</v>
       </c>
       <c r="C15" t="n">
-        <v>100.6</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>102.1</v>
+        <v>100.1</v>
       </c>
       <c r="E15" t="n">
-        <v>101.8</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="F15" t="n">
         <v>101.5</v>
       </c>
       <c r="G15" t="n">
-        <v>100.3</v>
+        <v>100.9</v>
       </c>
       <c r="H15" t="n">
-        <v>100.4</v>
+        <v>99.7</v>
       </c>
       <c r="I15" t="n">
-        <v>102</v>
+        <v>100.5</v>
       </c>
       <c r="J15" t="n">
-        <v>102.6</v>
+        <v>98.09999999999999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2019-03</t>
+          <t>2019-12</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>100.9</v>
+        <v>100.2</v>
       </c>
       <c r="C16" t="n">
-        <v>100.4</v>
+        <v>100.2</v>
       </c>
       <c r="D16" t="n">
-        <v>101.5</v>
+        <v>100.5</v>
       </c>
       <c r="E16" t="n">
-        <v>101</v>
+        <v>98.5</v>
       </c>
       <c r="F16" t="n">
-        <v>102.3</v>
+        <v>101.6</v>
       </c>
       <c r="G16" t="n">
-        <v>100.4</v>
+        <v>100.7</v>
       </c>
       <c r="H16" t="n">
         <v>99.5</v>
       </c>
       <c r="I16" t="n">
-        <v>101.9</v>
+        <v>100.6</v>
       </c>
       <c r="J16" t="n">
-        <v>101.5</v>
+        <v>98.09999999999999</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2019-04</t>
+          <t>2019-01</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>100.7</v>
+        <v>101.1</v>
       </c>
       <c r="C17" t="n">
-        <v>101.1</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>101.3</v>
+        <v>102.5</v>
       </c>
       <c r="E17" t="n">
-        <v>102.5</v>
+        <v>100.8</v>
       </c>
       <c r="F17" t="n">
-        <v>102.4</v>
+        <v>103.3</v>
       </c>
       <c r="G17" t="n">
-        <v>100.6</v>
+        <v>100.5</v>
       </c>
       <c r="H17" t="n">
-        <v>100.9</v>
+        <v>99.7</v>
       </c>
       <c r="I17" t="n">
-        <v>102.2</v>
+        <v>101.9</v>
       </c>
       <c r="J17" t="n">
-        <v>102.1</v>
+        <v>102.8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2019-05</t>
+          <t>2019-02</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>100.7</v>
+        <v>101.1</v>
       </c>
       <c r="C18" t="n">
-        <v>100.9</v>
+        <v>100.6</v>
       </c>
       <c r="D18" t="n">
-        <v>101.1</v>
+        <v>102.1</v>
       </c>
       <c r="E18" t="n">
-        <v>101.4</v>
+        <v>101.8</v>
       </c>
       <c r="F18" t="n">
-        <v>102.7</v>
+        <v>101.5</v>
       </c>
       <c r="G18" t="n">
-        <v>100.5</v>
+        <v>100.3</v>
       </c>
       <c r="H18" t="n">
-        <v>100.5</v>
+        <v>100.4</v>
       </c>
       <c r="I18" t="n">
-        <v>101.8</v>
+        <v>102</v>
       </c>
       <c r="J18" t="n">
-        <v>99.3</v>
+        <v>102.6</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2019-06</t>
+          <t>2019-03</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>100.7</v>
+        <v>100.9</v>
       </c>
       <c r="C19" t="n">
-        <v>101.2</v>
+        <v>100.4</v>
       </c>
       <c r="D19" t="n">
-        <v>100.7</v>
+        <v>101.5</v>
       </c>
       <c r="E19" t="n">
+        <v>101</v>
+      </c>
+      <c r="F19" t="n">
+        <v>102.3</v>
+      </c>
+      <c r="G19" t="n">
         <v>100.4</v>
       </c>
-      <c r="F19" t="n">
-        <v>102.6</v>
-      </c>
-      <c r="G19" t="n">
-        <v>100.7</v>
-      </c>
       <c r="H19" t="n">
-        <v>100.1</v>
+        <v>99.5</v>
       </c>
       <c r="I19" t="n">
-        <v>101.4</v>
+        <v>101.9</v>
       </c>
       <c r="J19" t="n">
-        <v>99.3</v>
+        <v>101.5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2019-07</t>
+          <t>2019-04</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>100.4</v>
+        <v>100.7</v>
       </c>
       <c r="C20" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>101.3</v>
+      </c>
+      <c r="E20" t="n">
+        <v>102.5</v>
+      </c>
+      <c r="F20" t="n">
+        <v>102.4</v>
+      </c>
+      <c r="G20" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="H20" t="n">
         <v>100.9</v>
       </c>
-      <c r="D20" t="n">
-        <v>100.9</v>
-      </c>
-      <c r="E20" t="n">
-        <v>99.7</v>
-      </c>
-      <c r="F20" t="n">
-        <v>102.6</v>
-      </c>
-      <c r="G20" t="n">
-        <v>101.2</v>
-      </c>
-      <c r="H20" t="n">
-        <v>100.5</v>
-      </c>
       <c r="I20" t="n">
-        <v>101.5</v>
+        <v>102.2</v>
       </c>
       <c r="J20" t="n">
-        <v>99.09999999999999</v>
+        <v>102.1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2019-08</t>
+          <t>2019-05</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>100.1</v>
+        <v>100.7</v>
       </c>
       <c r="C21" t="n">
-        <v>100.4</v>
+        <v>100.9</v>
       </c>
       <c r="D21" t="n">
-        <v>100.7</v>
+        <v>101.1</v>
       </c>
       <c r="E21" t="n">
-        <v>99.09999999999999</v>
+        <v>101.4</v>
       </c>
       <c r="F21" t="n">
-        <v>101.9</v>
+        <v>102.7</v>
       </c>
       <c r="G21" t="n">
-        <v>101.1</v>
+        <v>100.5</v>
       </c>
       <c r="H21" t="n">
-        <v>99.7</v>
+        <v>100.5</v>
       </c>
       <c r="I21" t="n">
-        <v>101.2</v>
+        <v>101.8</v>
       </c>
       <c r="J21" t="n">
-        <v>98.2</v>
+        <v>99.3</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2019-09</t>
+          <t>2019-06</t>
         </is>
       </c>
       <c r="B22" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="C22" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="D22" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="E22" t="n">
         <v>100.4</v>
       </c>
-      <c r="C22" t="n">
-        <v>100.6</v>
-      </c>
-      <c r="D22" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="E22" t="n">
-        <v>97.59999999999999</v>
-      </c>
       <c r="F22" t="n">
-        <v>102</v>
+        <v>102.6</v>
       </c>
       <c r="G22" t="n">
-        <v>101.3</v>
+        <v>100.7</v>
       </c>
       <c r="H22" t="n">
-        <v>99.40000000000001</v>
+        <v>100.1</v>
       </c>
       <c r="I22" t="n">
-        <v>100.7</v>
+        <v>101.4</v>
       </c>
       <c r="J22" t="n">
-        <v>98.2</v>
+        <v>99.3</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2019-10</t>
+          <t>2019-07</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>100.3</v>
+        <v>100.4</v>
       </c>
       <c r="C23" t="n">
-        <v>100.4</v>
+        <v>100.9</v>
       </c>
       <c r="D23" t="n">
-        <v>100.1</v>
+        <v>100.9</v>
       </c>
       <c r="E23" t="n">
-        <v>98</v>
+        <v>99.7</v>
       </c>
       <c r="F23" t="n">
-        <v>102.2</v>
+        <v>102.6</v>
       </c>
       <c r="G23" t="n">
-        <v>100.9</v>
+        <v>101.2</v>
       </c>
       <c r="H23" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="I23" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="J23" t="n">
         <v>99.09999999999999</v>
-      </c>
-      <c r="I23" t="n">
-        <v>100.8</v>
-      </c>
-      <c r="J23" t="n">
-        <v>97.59999999999999</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2019-11</t>
+          <t>2019-08</t>
         </is>
       </c>
       <c r="B24" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="C24" t="n">
         <v>100.4</v>
       </c>
-      <c r="C24" t="n">
-        <v>99.90000000000001</v>
-      </c>
       <c r="D24" t="n">
-        <v>100.1</v>
+        <v>100.7</v>
       </c>
       <c r="E24" t="n">
-        <v>97.90000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="F24" t="n">
-        <v>101.5</v>
+        <v>101.9</v>
       </c>
       <c r="G24" t="n">
-        <v>100.9</v>
+        <v>101.1</v>
       </c>
       <c r="H24" t="n">
         <v>99.7</v>
       </c>
       <c r="I24" t="n">
-        <v>100.5</v>
+        <v>101.2</v>
       </c>
       <c r="J24" t="n">
-        <v>98.09999999999999</v>
+        <v>98.2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2019-12</t>
+          <t>2019-09</t>
         </is>
       </c>
       <c r="B25" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="C25" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="D25" t="n">
         <v>100.2</v>
       </c>
-      <c r="C25" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="D25" t="n">
-        <v>100.5</v>
-      </c>
       <c r="E25" t="n">
-        <v>98.5</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="F25" t="n">
-        <v>101.6</v>
+        <v>102</v>
       </c>
       <c r="G25" t="n">
+        <v>101.3</v>
+      </c>
+      <c r="H25" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="I25" t="n">
         <v>100.7</v>
       </c>
-      <c r="H25" t="n">
-        <v>99.5</v>
-      </c>
-      <c r="I25" t="n">
-        <v>100.6</v>
-      </c>
       <c r="J25" t="n">
-        <v>98.09999999999999</v>
+        <v>98.2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2020-01</t>
+          <t>2020-10</t>
         </is>
       </c>
       <c r="B26" t="n">
+        <v>98.8</v>
+      </c>
+      <c r="C26" t="n">
+        <v>101.9</v>
+      </c>
+      <c r="D26" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E26" t="n">
+        <v>98.8</v>
+      </c>
+      <c r="F26" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="G26" t="n">
+        <v>100</v>
+      </c>
+      <c r="H26" t="n">
+        <v>102.3</v>
+      </c>
+      <c r="I26" t="n">
+        <v>100</v>
+      </c>
+      <c r="J26" t="n">
         <v>100.4</v>
-      </c>
-      <c r="C26" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="D26" t="n">
-        <v>100.8</v>
-      </c>
-      <c r="E26" t="n">
-        <v>99.5</v>
-      </c>
-      <c r="F26" t="n">
-        <v>101</v>
-      </c>
-      <c r="G26" t="n">
-        <v>101.4</v>
-      </c>
-      <c r="H26" t="n">
-        <v>100.5</v>
-      </c>
-      <c r="I26" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="J26" t="n">
-        <v>99.5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2020-02</t>
+          <t>2020-11</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>100.5</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>100.2</v>
+        <v>102.1</v>
       </c>
       <c r="D27" t="n">
-        <v>100.8</v>
+        <v>100.1</v>
       </c>
       <c r="E27" t="n">
-        <v>99.09999999999999</v>
+        <v>99</v>
       </c>
       <c r="F27" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="G27" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="H27" t="n">
+        <v>102.6</v>
+      </c>
+      <c r="I27" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="G27" t="n">
-        <v>101.5</v>
-      </c>
-      <c r="H27" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>100.1</v>
-      </c>
       <c r="J27" t="n">
-        <v>99.90000000000001</v>
+        <v>101.4</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2020-03</t>
+          <t>2020-12</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>100.2</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="C28" t="n">
+        <v>101.9</v>
+      </c>
+      <c r="D28" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="E28" t="n">
+        <v>101.6</v>
+      </c>
+      <c r="F28" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="G28" t="n">
+        <v>100</v>
+      </c>
+      <c r="H28" t="n">
+        <v>104.4</v>
+      </c>
+      <c r="I28" t="n">
         <v>100.1</v>
       </c>
-      <c r="D28" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="E28" t="n">
-        <v>97.8</v>
-      </c>
-      <c r="F28" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="G28" t="n">
-        <v>101.4</v>
-      </c>
-      <c r="H28" t="n">
-        <v>98.8</v>
-      </c>
-      <c r="I28" t="n">
-        <v>99.8</v>
-      </c>
       <c r="J28" t="n">
-        <v>101.4</v>
+        <v>102.8</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2020-04</t>
+          <t>2020-01</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>99.90000000000001</v>
+        <v>100.4</v>
       </c>
       <c r="C29" t="n">
-        <v>99.40000000000001</v>
+        <v>100.1</v>
       </c>
       <c r="D29" t="n">
-        <v>100.3</v>
+        <v>100.8</v>
       </c>
       <c r="E29" t="n">
-        <v>95.59999999999999</v>
+        <v>99.5</v>
       </c>
       <c r="F29" t="n">
+        <v>101</v>
+      </c>
+      <c r="G29" t="n">
+        <v>101.4</v>
+      </c>
+      <c r="H29" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="I29" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="J29" t="n">
         <v>99.5</v>
-      </c>
-      <c r="G29" t="n">
-        <v>101.1</v>
-      </c>
-      <c r="H29" t="n">
-        <v>97.7</v>
-      </c>
-      <c r="I29" t="n">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="J29" t="n">
-        <v>101.4</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2020-05</t>
+          <t>2020-02</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>99.59999999999999</v>
+        <v>100.5</v>
       </c>
       <c r="C30" t="n">
         <v>100.2</v>
       </c>
       <c r="D30" t="n">
-        <v>100.2</v>
+        <v>100.8</v>
       </c>
       <c r="E30" t="n">
-        <v>95.2</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="F30" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="G30" t="n">
-        <v>100.5</v>
+        <v>101.5</v>
       </c>
       <c r="H30" t="n">
-        <v>97.3</v>
+        <v>100.1</v>
       </c>
       <c r="I30" t="n">
-        <v>99.59999999999999</v>
+        <v>100.1</v>
       </c>
       <c r="J30" t="n">
-        <v>101.3</v>
+        <v>99.90000000000001</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2020-06</t>
+          <t>2020-03</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>99.40000000000001</v>
+        <v>100.2</v>
       </c>
       <c r="C31" t="n">
-        <v>99.90000000000001</v>
+        <v>100.1</v>
       </c>
       <c r="D31" t="n">
         <v>100.4</v>
       </c>
       <c r="E31" t="n">
-        <v>96.40000000000001</v>
+        <v>97.8</v>
       </c>
       <c r="F31" t="n">
-        <v>100.6</v>
+        <v>100.1</v>
       </c>
       <c r="G31" t="n">
-        <v>100.7</v>
+        <v>101.4</v>
       </c>
       <c r="H31" t="n">
-        <v>98.2</v>
+        <v>98.8</v>
       </c>
       <c r="I31" t="n">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="J31" t="n">
-        <v>101.1</v>
+        <v>101.4</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2020-07</t>
+          <t>2020-04</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>99.7</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C32" t="n">
-        <v>100.4</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="D32" t="n">
-        <v>99.90000000000001</v>
+        <v>100.3</v>
       </c>
       <c r="E32" t="n">
-        <v>97.3</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="F32" t="n">
-        <v>100.2</v>
+        <v>99.5</v>
       </c>
       <c r="G32" t="n">
-        <v>100.8</v>
+        <v>101.1</v>
       </c>
       <c r="H32" t="n">
-        <v>99.09999999999999</v>
+        <v>97.7</v>
       </c>
       <c r="I32" t="n">
         <v>99.59999999999999</v>
       </c>
       <c r="J32" t="n">
-        <v>100.2</v>
+        <v>101.4</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2020-08</t>
+          <t>2020-05</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>99.40000000000001</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="C33" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="D33" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="E33" t="n">
+        <v>95.2</v>
+      </c>
+      <c r="F33" t="n">
+        <v>100</v>
+      </c>
+      <c r="G33" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="H33" t="n">
+        <v>97.3</v>
+      </c>
+      <c r="I33" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J33" t="n">
         <v>101.3</v>
-      </c>
-      <c r="D33" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="E33" t="n">
-        <v>97.90000000000001</v>
-      </c>
-      <c r="F33" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="G33" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="H33" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="I33" t="n">
-        <v>100</v>
-      </c>
-      <c r="J33" t="n">
-        <v>100.6</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2020-09</t>
+          <t>2020-06</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>98.90000000000001</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>101.2</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D34" t="n">
         <v>100.4</v>
       </c>
       <c r="E34" t="n">
-        <v>99</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="F34" t="n">
-        <v>98.90000000000001</v>
+        <v>100.6</v>
       </c>
       <c r="G34" t="n">
-        <v>99.59999999999999</v>
+        <v>100.7</v>
       </c>
       <c r="H34" t="n">
-        <v>101.8</v>
+        <v>98.2</v>
       </c>
       <c r="I34" t="n">
-        <v>99.90000000000001</v>
+        <v>99.7</v>
       </c>
       <c r="J34" t="n">
-        <v>99.90000000000001</v>
+        <v>101.1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2020-10</t>
+          <t>2020-07</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>98.8</v>
+        <v>99.7</v>
       </c>
       <c r="C35" t="n">
-        <v>101.9</v>
+        <v>100.4</v>
       </c>
       <c r="D35" t="n">
         <v>99.90000000000001</v>
       </c>
       <c r="E35" t="n">
-        <v>98.8</v>
+        <v>97.3</v>
       </c>
       <c r="F35" t="n">
-        <v>98.40000000000001</v>
+        <v>100.2</v>
       </c>
       <c r="G35" t="n">
-        <v>100</v>
+        <v>100.8</v>
       </c>
       <c r="H35" t="n">
-        <v>102.3</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="I35" t="n">
-        <v>100</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="J35" t="n">
-        <v>100.4</v>
+        <v>100.2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2020-11</t>
+          <t>2020-08</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>98.59999999999999</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>102.1</v>
+        <v>101.3</v>
       </c>
       <c r="D36" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="E36" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="F36" t="n">
         <v>100.1</v>
       </c>
-      <c r="E36" t="n">
-        <v>99</v>
-      </c>
-      <c r="F36" t="n">
-        <v>98.2</v>
-      </c>
       <c r="G36" t="n">
-        <v>99.40000000000001</v>
+        <v>100.3</v>
       </c>
       <c r="H36" t="n">
-        <v>102.6</v>
+        <v>100.3</v>
       </c>
       <c r="I36" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="J36" t="n">
-        <v>101.4</v>
+        <v>100.6</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2020-12</t>
+          <t>2020-09</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>99.09999999999999</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="C37" t="n">
-        <v>101.9</v>
+        <v>101.2</v>
       </c>
       <c r="D37" t="n">
-        <v>100.5</v>
+        <v>100.4</v>
       </c>
       <c r="E37" t="n">
-        <v>101.6</v>
+        <v>99</v>
       </c>
       <c r="F37" t="n">
-        <v>98.2</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="G37" t="n">
-        <v>100</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="H37" t="n">
-        <v>104.4</v>
+        <v>101.8</v>
       </c>
       <c r="I37" t="n">
-        <v>100.1</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="J37" t="n">
-        <v>102.8</v>
+        <v>99.90000000000001</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2021-01</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>98</v>
+        <v>104.2</v>
       </c>
       <c r="C38" t="n">
-        <v>99.09999999999999</v>
+        <v>119.1</v>
       </c>
       <c r="D38" t="n">
-        <v>101</v>
+        <v>109.3</v>
       </c>
       <c r="E38" t="n">
-        <v>106.4</v>
+        <v>119.5</v>
       </c>
       <c r="F38" t="n">
-        <v>96.90000000000001</v>
+        <v>101.8</v>
       </c>
       <c r="G38" t="n">
-        <v>99.3</v>
+        <v>102.4</v>
       </c>
       <c r="H38" t="n">
-        <v>104.8</v>
+        <v>111.2</v>
       </c>
       <c r="I38" t="n">
-        <v>100.9</v>
+        <v>112.1</v>
       </c>
       <c r="J38" t="n">
-        <v>103</v>
+        <v>114</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2021-02</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>98.40000000000001</v>
+        <v>104.5</v>
       </c>
       <c r="C39" t="n">
-        <v>99.09999999999999</v>
+        <v>119</v>
       </c>
       <c r="D39" t="n">
-        <v>101.8</v>
+        <v>108.8</v>
       </c>
       <c r="E39" t="n">
-        <v>108.3</v>
+        <v>119.5</v>
       </c>
       <c r="F39" t="n">
-        <v>98.2</v>
+        <v>102</v>
       </c>
       <c r="G39" t="n">
-        <v>99.7</v>
+        <v>102.8</v>
       </c>
       <c r="H39" t="n">
-        <v>105.7</v>
+        <v>111.7</v>
       </c>
       <c r="I39" t="n">
-        <v>101.8</v>
+        <v>112.7</v>
       </c>
       <c r="J39" t="n">
-        <v>103.4</v>
+        <v>113.6</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2021-03</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>98.40000000000001</v>
+        <v>105</v>
       </c>
       <c r="C40" t="n">
-        <v>100.2</v>
+        <v>118.2</v>
       </c>
       <c r="D40" t="n">
-        <v>103.8</v>
+        <v>108.2</v>
       </c>
       <c r="E40" t="n">
-        <v>112.7</v>
+        <v>114.6</v>
       </c>
       <c r="F40" t="n">
-        <v>97.40000000000001</v>
+        <v>102.1</v>
       </c>
       <c r="G40" t="n">
-        <v>99.59999999999999</v>
+        <v>103.4</v>
       </c>
       <c r="H40" t="n">
-        <v>107.7</v>
+        <v>110.4</v>
       </c>
       <c r="I40" t="n">
-        <v>103.9</v>
+        <v>112.2</v>
       </c>
       <c r="J40" t="n">
-        <v>103.6</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2021-04</t>
+          <t>2021-01</t>
         </is>
       </c>
       <c r="B41" t="n">
+        <v>98</v>
+      </c>
+      <c r="C41" t="n">
         <v>99.09999999999999</v>
       </c>
-      <c r="C41" t="n">
-        <v>99.2</v>
-      </c>
       <c r="D41" t="n">
-        <v>105.5</v>
+        <v>101</v>
       </c>
       <c r="E41" t="n">
-        <v>118</v>
+        <v>106.4</v>
       </c>
       <c r="F41" t="n">
-        <v>97.7</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="G41" t="n">
-        <v>99.90000000000001</v>
+        <v>99.3</v>
       </c>
       <c r="H41" t="n">
-        <v>108.3</v>
+        <v>104.8</v>
       </c>
       <c r="I41" t="n">
-        <v>105</v>
+        <v>100.9</v>
       </c>
       <c r="J41" t="n">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2021-05</t>
+          <t>2021-02</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>101.2</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="C42" t="n">
-        <v>111.1</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>106.8</v>
+        <v>101.8</v>
       </c>
       <c r="E42" t="n">
-        <v>120.2</v>
+        <v>108.3</v>
       </c>
       <c r="F42" t="n">
-        <v>97.8</v>
+        <v>98.2</v>
       </c>
       <c r="G42" t="n">
-        <v>100.6</v>
+        <v>99.7</v>
       </c>
       <c r="H42" t="n">
-        <v>113.1</v>
+        <v>105.7</v>
       </c>
       <c r="I42" t="n">
-        <v>107.4</v>
+        <v>101.8</v>
       </c>
       <c r="J42" t="n">
-        <v>108.2</v>
+        <v>103.4</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2021-06</t>
+          <t>2021-03</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>101.3</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>114.5</v>
+        <v>100.2</v>
       </c>
       <c r="D43" t="n">
-        <v>107</v>
+        <v>103.8</v>
       </c>
       <c r="E43" t="n">
-        <v>120.4</v>
+        <v>112.7</v>
       </c>
       <c r="F43" t="n">
-        <v>97.8</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="G43" t="n">
-        <v>100.5</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="H43" t="n">
-        <v>112.4</v>
+        <v>107.7</v>
       </c>
       <c r="I43" t="n">
-        <v>109</v>
+        <v>103.9</v>
       </c>
       <c r="J43" t="n">
-        <v>108.4</v>
+        <v>103.6</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2021-07</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>101.8</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="C44" t="n">
-        <v>114</v>
+        <v>99.2</v>
       </c>
       <c r="D44" t="n">
-        <v>107.8</v>
+        <v>105.5</v>
       </c>
       <c r="E44" t="n">
-        <v>117.9</v>
+        <v>118</v>
       </c>
       <c r="F44" t="n">
-        <v>99</v>
+        <v>97.7</v>
       </c>
       <c r="G44" t="n">
-        <v>100.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="H44" t="n">
-        <v>112.5</v>
+        <v>108.3</v>
       </c>
       <c r="I44" t="n">
-        <v>109.2</v>
+        <v>105</v>
       </c>
       <c r="J44" t="n">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2021-08</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>102</v>
+        <v>101.2</v>
       </c>
       <c r="C45" t="n">
-        <v>116.2</v>
+        <v>111.1</v>
       </c>
       <c r="D45" t="n">
+        <v>106.8</v>
+      </c>
+      <c r="E45" t="n">
+        <v>120.2</v>
+      </c>
+      <c r="F45" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="G45" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="H45" t="n">
+        <v>113.1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>107.4</v>
+      </c>
+      <c r="J45" t="n">
         <v>108.2</v>
-      </c>
-      <c r="E45" t="n">
-        <v>117.2</v>
-      </c>
-      <c r="F45" t="n">
-        <v>99.3</v>
-      </c>
-      <c r="G45" t="n">
-        <v>101.5</v>
-      </c>
-      <c r="H45" t="n">
-        <v>112.2</v>
-      </c>
-      <c r="I45" t="n">
-        <v>109.9</v>
-      </c>
-      <c r="J45" t="n">
-        <v>112.2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2021-09</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>103.2</v>
+        <v>101.3</v>
       </c>
       <c r="C46" t="n">
-        <v>113.6</v>
+        <v>114.5</v>
       </c>
       <c r="D46" t="n">
+        <v>107</v>
+      </c>
+      <c r="E46" t="n">
+        <v>120.4</v>
+      </c>
+      <c r="F46" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="G46" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="H46" t="n">
+        <v>112.4</v>
+      </c>
+      <c r="I46" t="n">
+        <v>109</v>
+      </c>
+      <c r="J46" t="n">
         <v>108.4</v>
-      </c>
-      <c r="E46" t="n">
-        <v>117.1</v>
-      </c>
-      <c r="F46" t="n">
-        <v>100.6</v>
-      </c>
-      <c r="G46" t="n">
-        <v>102.6</v>
-      </c>
-      <c r="H46" t="n">
-        <v>112</v>
-      </c>
-      <c r="I46" t="n">
-        <v>110.7</v>
-      </c>
-      <c r="J46" t="n">
-        <v>113.4</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2021-10</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>104.2</v>
+        <v>101.8</v>
       </c>
       <c r="C47" t="n">
-        <v>119.1</v>
+        <v>114</v>
       </c>
       <c r="D47" t="n">
-        <v>109.3</v>
+        <v>107.8</v>
       </c>
       <c r="E47" t="n">
-        <v>119.5</v>
+        <v>117.9</v>
       </c>
       <c r="F47" t="n">
-        <v>101.8</v>
+        <v>99</v>
       </c>
       <c r="G47" t="n">
-        <v>102.4</v>
+        <v>100.8</v>
       </c>
       <c r="H47" t="n">
-        <v>111.2</v>
+        <v>112.5</v>
       </c>
       <c r="I47" t="n">
-        <v>112.1</v>
+        <v>109.2</v>
       </c>
       <c r="J47" t="n">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2021-11</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>104.5</v>
+        <v>102</v>
       </c>
       <c r="C48" t="n">
-        <v>119</v>
+        <v>116.2</v>
       </c>
       <c r="D48" t="n">
-        <v>108.8</v>
+        <v>108.2</v>
       </c>
       <c r="E48" t="n">
-        <v>119.5</v>
+        <v>117.2</v>
       </c>
       <c r="F48" t="n">
-        <v>102</v>
+        <v>99.3</v>
       </c>
       <c r="G48" t="n">
-        <v>102.8</v>
+        <v>101.5</v>
       </c>
       <c r="H48" t="n">
-        <v>111.7</v>
+        <v>112.2</v>
       </c>
       <c r="I48" t="n">
-        <v>112.7</v>
+        <v>109.9</v>
       </c>
       <c r="J48" t="n">
-        <v>113.6</v>
+        <v>112.2</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2021-12</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="B49" t="n">
+        <v>103.2</v>
+      </c>
+      <c r="C49" t="n">
+        <v>113.6</v>
+      </c>
+      <c r="D49" t="n">
+        <v>108.4</v>
+      </c>
+      <c r="E49" t="n">
+        <v>117.1</v>
+      </c>
+      <c r="F49" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="G49" t="n">
+        <v>102.6</v>
+      </c>
+      <c r="H49" t="n">
+        <v>112</v>
+      </c>
+      <c r="I49" t="n">
+        <v>110.7</v>
+      </c>
+      <c r="J49" t="n">
+        <v>113.4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>2022-10</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>102.8</v>
+      </c>
+      <c r="C50" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="D50" t="n">
+        <v>96</v>
+      </c>
+      <c r="E50" t="n">
+        <v>92.59999999999999</v>
+      </c>
+      <c r="F50" t="n">
+        <v>103.9</v>
+      </c>
+      <c r="G50" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="H50" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="I50" t="n">
+        <v>96.90000000000001</v>
+      </c>
+      <c r="J50" t="n">
+        <v>97.40000000000001</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>2022-11</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>103</v>
+      </c>
+      <c r="C51" t="n">
+        <v>99</v>
+      </c>
+      <c r="D51" t="n">
+        <v>95.8</v>
+      </c>
+      <c r="E51" t="n">
+        <v>92.09999999999999</v>
+      </c>
+      <c r="F51" t="n">
+        <v>103.6</v>
+      </c>
+      <c r="G51" t="n">
+        <v>101</v>
+      </c>
+      <c r="H51" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="I51" t="n">
+        <v>95.8</v>
+      </c>
+      <c r="J51" t="n">
+        <v>95.3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>2022-12</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>102.9</v>
+      </c>
+      <c r="C52" t="n">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="D52" t="n">
+        <v>96.3</v>
+      </c>
+      <c r="E52" t="n">
+        <v>93.3</v>
+      </c>
+      <c r="F52" t="n">
+        <v>103.1</v>
+      </c>
+      <c r="G52" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="H52" t="n">
+        <v>96.90000000000001</v>
+      </c>
+      <c r="I52" t="n">
+        <v>95.90000000000001</v>
+      </c>
+      <c r="J52" t="n">
+        <v>94.59999999999999</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>2022-01</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
         <v>105</v>
       </c>
-      <c r="C49" t="n">
-        <v>118.2</v>
-      </c>
-      <c r="D49" t="n">
-        <v>108.2</v>
-      </c>
-      <c r="E49" t="n">
-        <v>114.6</v>
-      </c>
-      <c r="F49" t="n">
+      <c r="C53" t="n">
+        <v>118</v>
+      </c>
+      <c r="D53" t="n">
+        <v>106.9</v>
+      </c>
+      <c r="E53" t="n">
+        <v>113.3</v>
+      </c>
+      <c r="F53" t="n">
+        <v>102.6</v>
+      </c>
+      <c r="G53" t="n">
+        <v>103.4</v>
+      </c>
+      <c r="H53" t="n">
+        <v>109.3</v>
+      </c>
+      <c r="I53" t="n">
+        <v>111.1</v>
+      </c>
+      <c r="J53" t="n">
+        <v>112.1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>2022-02</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>105</v>
+      </c>
+      <c r="C54" t="n">
+        <v>118.1</v>
+      </c>
+      <c r="D54" t="n">
+        <v>106.3</v>
+      </c>
+      <c r="E54" t="n">
+        <v>112.7</v>
+      </c>
+      <c r="F54" t="n">
+        <v>103</v>
+      </c>
+      <c r="G54" t="n">
+        <v>103</v>
+      </c>
+      <c r="H54" t="n">
+        <v>107.7</v>
+      </c>
+      <c r="I54" t="n">
+        <v>110.8</v>
+      </c>
+      <c r="J54" t="n">
+        <v>111.5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>2022-03</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>104.8</v>
+      </c>
+      <c r="C55" t="n">
+        <v>116.9</v>
+      </c>
+      <c r="D55" t="n">
+        <v>104.6</v>
+      </c>
+      <c r="E55" t="n">
+        <v>110.8</v>
+      </c>
+      <c r="F55" t="n">
+        <v>103.7</v>
+      </c>
+      <c r="G55" t="n">
+        <v>102.3</v>
+      </c>
+      <c r="H55" t="n">
+        <v>106.5</v>
+      </c>
+      <c r="I55" t="n">
+        <v>109.5</v>
+      </c>
+      <c r="J55" t="n">
+        <v>110.3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>2022-04</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>104.4</v>
+      </c>
+      <c r="C56" t="n">
+        <v>117.1</v>
+      </c>
+      <c r="D56" t="n">
+        <v>103.2</v>
+      </c>
+      <c r="E56" t="n">
+        <v>109</v>
+      </c>
+      <c r="F56" t="n">
+        <v>103.6</v>
+      </c>
+      <c r="G56" t="n">
+        <v>103.1</v>
+      </c>
+      <c r="H56" t="n">
+        <v>107.2</v>
+      </c>
+      <c r="I56" t="n">
+        <v>108.6</v>
+      </c>
+      <c r="J56" t="n">
+        <v>106.4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>2022-05</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>104</v>
+      </c>
+      <c r="C57" t="n">
+        <v>112.8</v>
+      </c>
+      <c r="D57" t="n">
+        <v>101.7</v>
+      </c>
+      <c r="E57" t="n">
+        <v>107.5</v>
+      </c>
+      <c r="F57" t="n">
+        <v>104.3</v>
+      </c>
+      <c r="G57" t="n">
+        <v>102.8</v>
+      </c>
+      <c r="H57" t="n">
+        <v>103.4</v>
+      </c>
+      <c r="I57" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="J57" t="n">
+        <v>105.8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>2022-06</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>103.9</v>
+      </c>
+      <c r="C58" t="n">
+        <v>112</v>
+      </c>
+      <c r="D58" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="E58" t="n">
+        <v>105.6</v>
+      </c>
+      <c r="F58" t="n">
+        <v>103.9</v>
+      </c>
+      <c r="G58" t="n">
+        <v>102.4</v>
+      </c>
+      <c r="H58" t="n">
+        <v>102.7</v>
+      </c>
+      <c r="I58" t="n">
+        <v>103.6</v>
+      </c>
+      <c r="J58" t="n">
+        <v>104.7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>2022-07</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>103.1</v>
+      </c>
+      <c r="C59" t="n">
+        <v>104.5</v>
+      </c>
+      <c r="D59" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="E59" t="n">
+        <v>101.9</v>
+      </c>
+      <c r="F59" t="n">
+        <v>103.6</v>
+      </c>
+      <c r="G59" t="n">
+        <v>102</v>
+      </c>
+      <c r="H59" t="n">
+        <v>101.6</v>
+      </c>
+      <c r="I59" t="n">
         <v>102.1</v>
       </c>
-      <c r="G49" t="n">
-        <v>103.4</v>
-      </c>
-      <c r="H49" t="n">
-        <v>110.4</v>
-      </c>
-      <c r="I49" t="n">
-        <v>112.2</v>
-      </c>
-      <c r="J49" t="n">
-        <v>113</v>
+      <c r="J59" t="n">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>103.6</v>
+      </c>
+      <c r="C60" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="D60" t="n">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="E60" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="F60" t="n">
+        <v>103.7</v>
+      </c>
+      <c r="G60" t="n">
+        <v>101.7</v>
+      </c>
+      <c r="H60" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="I60" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>100.3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>2022-09</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>102.9</v>
+      </c>
+      <c r="C61" t="n">
+        <v>103.8</v>
+      </c>
+      <c r="D61" t="n">
+        <v>96.8</v>
+      </c>
+      <c r="E61" t="n">
+        <v>95.3</v>
+      </c>
+      <c r="F61" t="n">
+        <v>103.8</v>
+      </c>
+      <c r="G61" t="n">
+        <v>101.3</v>
+      </c>
+      <c r="H61" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="I61" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="J61" t="n">
+        <v>98.8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>2023-01</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>102.8</v>
+      </c>
+      <c r="C62" t="n">
+        <v>96.7</v>
+      </c>
+      <c r="D62" t="n">
+        <v>96.40000000000001</v>
+      </c>
+      <c r="E62" t="n">
+        <v>93.40000000000001</v>
+      </c>
+      <c r="F62" t="n">
+        <v>102.8</v>
+      </c>
+      <c r="G62" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="H62" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="I62" t="n">
+        <v>95.90000000000001</v>
+      </c>
+      <c r="J62" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>2023-02</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>101.9</v>
+      </c>
+      <c r="C63" t="n">
+        <v>96</v>
+      </c>
+      <c r="D63" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="E63" t="n">
+        <v>93.59999999999999</v>
+      </c>
+      <c r="F63" t="n">
+        <v>102.4</v>
+      </c>
+      <c r="G63" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="H63" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="I63" t="n">
+        <v>95.3</v>
+      </c>
+      <c r="J63" t="n">
+        <v>93.2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>2023-03</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>102</v>
+      </c>
+      <c r="C64" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="D64" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="E64" t="n">
+        <v>93.2</v>
+      </c>
+      <c r="F64" t="n">
+        <v>102.4</v>
+      </c>
+      <c r="G64" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="H64" t="n">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="I64" t="n">
+        <v>94.7</v>
+      </c>
+      <c r="J64" t="n">
+        <v>93.40000000000001</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>2023-04</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="C65" t="n">
+        <v>96.90000000000001</v>
+      </c>
+      <c r="D65" t="n">
+        <v>95.8</v>
+      </c>
+      <c r="E65" t="n">
+        <v>91.90000000000001</v>
+      </c>
+      <c r="F65" t="n">
+        <v>102.2</v>
+      </c>
+      <c r="G65" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="H65" t="n">
+        <v>96</v>
+      </c>
+      <c r="I65" t="n">
+        <v>94.7</v>
+      </c>
+      <c r="J65" t="n">
+        <v>93.40000000000001</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>2023-05</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="C66" t="n">
+        <v>90.09999999999999</v>
+      </c>
+      <c r="D66" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="E66" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="F66" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="G66" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="H66" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="I66" t="n">
+        <v>94.7</v>
+      </c>
+      <c r="J66" t="n">
+        <v>92.59999999999999</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>2023-06</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="C67" t="n">
+        <v>88.8</v>
+      </c>
+      <c r="D67" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="E67" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="F67" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="G67" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="H67" t="n">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="I67" t="n">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="J67" t="n">
+        <v>93.09999999999999</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>2023-07</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="C68" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="D68" t="n">
+        <v>95.90000000000001</v>
+      </c>
+      <c r="E68" t="n">
+        <v>92.8</v>
+      </c>
+      <c r="F68" t="n">
+        <v>101.3</v>
+      </c>
+      <c r="G68" t="n">
+        <v>98.09999999999999</v>
+      </c>
+      <c r="H68" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="I68" t="n">
+        <v>95.90000000000001</v>
+      </c>
+      <c r="J68" t="n">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
